--- a/docs/Pay Calculations/2019/Contracts Comparison 2019_07_31.xlsx
+++ b/docs/Pay Calculations/2019/Contracts Comparison 2019_07_31.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Gaming\madden_08_updater\docs\Yearly Salary and Bonus Calculations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Gaming\madden_08_updater\docs\Pay Calculations\2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{640E7660-7A89-453D-A017-25FF23125CA0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -72,82 +71,82 @@
     <t>Proposed Rules:</t>
   </si>
   <si>
-    <t>Signing Bon &gt;1M, &lt; 10M, cut to 50%</t>
-  </si>
-  <si>
-    <t>Total Sal &lt; 1M, cut to 43%</t>
-  </si>
-  <si>
-    <t>Total Sal &gt; 10M, cut to 72.5%</t>
-  </si>
-  <si>
     <t>NOTE!! PSBO must always be in multiples of PCON (length of contract). This means if the contract is for 3 years, the bonus can NOT be 10,000 or 20,000 (PSBO != 1 or 2).</t>
   </si>
   <si>
-    <t>Total Sal &gt; 1M, &lt; 10M, cut to 58%</t>
-  </si>
-  <si>
     <t>Formula:</t>
   </si>
   <si>
     <t xml:space="preserve">if tot_sal &gt; 10M: </t>
   </si>
   <si>
-    <t>new_tot_sal = round((tot_sal / 10000) * .725)</t>
-  </si>
-  <si>
     <t>elif tot_sal &gt; 1M:</t>
   </si>
   <si>
-    <t>new_tot_sal = round((tot_sal / 10000) * .58)</t>
-  </si>
-  <si>
-    <t>new_tot_sal = round((tot_sal / 10000) * .43)</t>
-  </si>
-  <si>
     <t>else:</t>
   </si>
   <si>
     <t xml:space="preserve">if sgn_bon &gt; 10M: </t>
   </si>
   <si>
-    <t>Signing Bon &lt; 100K, cut to 80%</t>
-  </si>
-  <si>
-    <t>Signing Bon &gt;100K, &lt; 1M, cut to 65%</t>
-  </si>
-  <si>
     <t xml:space="preserve">elif sgn_bon &gt; 1M: </t>
   </si>
   <si>
-    <t>new_sgn_bon = round((sgn_bon / 10000) * .5)</t>
-  </si>
-  <si>
     <t xml:space="preserve">elif sgn_bon &gt; 100K: </t>
   </si>
   <si>
-    <t>new_sgn_bon = round((sgn_bon / 10000) * .65)</t>
-  </si>
-  <si>
-    <t>new_sgn_bon = round((sgn_bon / 10000) * .8)</t>
-  </si>
-  <si>
     <t>AND then:</t>
   </si>
   <si>
     <t>if (new_sgn_bon Mod PCON) &gt; 0: new_sgn_bon +=  PCON - (new_sgn_bon Mod PCON)</t>
   </si>
   <si>
-    <t>Signing Bon &gt;10M, cut to 33%</t>
-  </si>
-  <si>
-    <t>new_sgn_bon = round((sgn_bon / 10000) * .33)</t>
+    <t>Total Sal &lt; 1M, cut to 41%</t>
+  </si>
+  <si>
+    <t>Total Sal &gt; 10M, cut to 65%</t>
+  </si>
+  <si>
+    <t>Total Sal &gt; 1M, &lt; 10M, cut to 53%</t>
+  </si>
+  <si>
+    <t>new_tot_sal = round((tot_sal / 10000) * .65)</t>
+  </si>
+  <si>
+    <t>new_tot_sal = round((tot_sal / 10000) * .53)</t>
+  </si>
+  <si>
+    <t>new_tot_sal = round((tot_sal / 10000) * .41)</t>
+  </si>
+  <si>
+    <t>Signing Bon &gt;10M, cut to 25%</t>
+  </si>
+  <si>
+    <t>new_sgn_bon = round((sgn_bon / 10000) * .25)</t>
+  </si>
+  <si>
+    <t>Signing Bon &lt; 100K, cut to 75%</t>
+  </si>
+  <si>
+    <t>Signing Bon &gt;100K, &lt; 1M, cut to 58%</t>
+  </si>
+  <si>
+    <t>Signing Bon &gt;1M, &lt; 10M, cut to 41%</t>
+  </si>
+  <si>
+    <t>new_sgn_bon = round((sgn_bon / 10000) * .41)</t>
+  </si>
+  <si>
+    <t>new_sgn_bon = round((sgn_bon / 10000) * .58)</t>
+  </si>
+  <si>
+    <t>new_sgn_bon = round((sgn_bon / 10000) * .75)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -470,21 +469,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="4" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="19.73046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.73046875" customWidth="1"/>
+    <col min="3" max="4" width="15.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -498,67 +495,75 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>200000</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" t="e">
+      <c r="C2" s="1">
+        <v>487500</v>
+      </c>
+      <c r="D2">
         <f>(B2/C2)*100</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>41.025641025641022</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>14171500</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" t="e">
+      <c r="C3" s="1">
+        <v>28000000</v>
+      </c>
+      <c r="D3">
         <f t="shared" ref="D3:D12" si="0">(B3/C3)*100</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>50.612500000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="1">
         <v>10000</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" t="e">
+      <c r="C5" s="1">
+        <v>487500</v>
+      </c>
+      <c r="D5">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.0512820512820511</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="1">
         <v>10811500</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" t="e">
+      <c r="C6" s="1">
+        <v>15967200</v>
+      </c>
+      <c r="D6">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>67.71068189789068</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -566,14 +571,14 @@
         <v>230000</v>
       </c>
       <c r="C8" s="1">
-        <v>500000</v>
+        <v>495000</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>46.464646464646464</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -581,18 +586,18 @@
         <v>99200000</v>
       </c>
       <c r="C9" s="1">
-        <v>126850000</v>
+        <v>150000000</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>78.202601497832077</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>66.133333333333326</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -606,7 +611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -614,126 +619,126 @@
         <v>23520000</v>
       </c>
       <c r="C12" s="1">
-        <v>79500000</v>
+        <v>94500000</v>
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>29.584905660377359</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>24.888888888888889</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B21" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="C21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" t="s">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B29" t="s">
         <v>19</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C29" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B30" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+      <c r="C30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B32" t="s">
         <v>21</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C32" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>18</v>
-      </c>
-      <c r="B28" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>28</v>
-      </c>
-      <c r="C29" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>30</v>
-      </c>
-      <c r="C30" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>24</v>
-      </c>
-      <c r="C31" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>33</v>
-      </c>
-      <c r="C32" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
